--- a/Journaux.xlsx
+++ b/Journaux.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
+    <sheet name="Journal de travail" sheetId="1" r:id="rId1"/>
+    <sheet name="Journal de Bord" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -16,6 +17,38 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="9">
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Heure début</t>
+  </si>
+  <si>
+    <t>Heure fin</t>
+  </si>
+  <si>
+    <t>Temps</t>
+  </si>
+  <si>
+    <t>Projet</t>
+  </si>
+  <si>
+    <t>Tâche</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Description </t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>Journal de travail- Collaud Nathanaël</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -49,8 +82,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -68,8 +109,42 @@
 </styleSheet>
 </file>
 
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tableau2" displayName="Tableau2" ref="A2:H3" totalsRowShown="0">
+  <autoFilter ref="A2:H3"/>
+  <tableColumns count="8">
+    <tableColumn id="1" name="Date"/>
+    <tableColumn id="2" name="Heure début"/>
+    <tableColumn id="3" name="Heure fin"/>
+    <tableColumn id="4" name="Temps"/>
+    <tableColumn id="5" name="Projet"/>
+    <tableColumn id="6" name="Tâche"/>
+    <tableColumn id="7" name="Description "/>
+    <tableColumn id="8" name="Source"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tableau3" displayName="Tableau3" ref="A2:H3" totalsRowShown="0">
+  <autoFilter ref="A2:H3"/>
+  <tableColumns count="8">
+    <tableColumn id="1" name="Date"/>
+    <tableColumn id="2" name="Heure début"/>
+    <tableColumn id="3" name="Heure fin"/>
+    <tableColumn id="4" name="Temps"/>
+    <tableColumn id="5" name="Projet"/>
+    <tableColumn id="6" name="Tâche"/>
+    <tableColumn id="7" name="Description "/>
+    <tableColumn id="8" name="Source"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -114,7 +189,7 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -149,7 +224,7 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -331,12 +406,130 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="14.28515625" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" customWidth="1"/>
+    <col min="4" max="4" width="9" customWidth="1"/>
+    <col min="5" max="5" width="8.5703125" customWidth="1"/>
+    <col min="6" max="6" width="8.28515625" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:H1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:H1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="14.28515625" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/Journaux.xlsx
+++ b/Journaux.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Journal de travail" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
   <si>
     <t>Date</t>
   </si>
@@ -47,6 +47,34 @@
   </si>
   <si>
     <t>Journal de travail- Collaud Nathanaël</t>
+  </si>
+  <si>
+    <t>Journal de Bord - Collaud Nathanaël</t>
+  </si>
+  <si>
+    <t>De/Avec qui</t>
+  </si>
+  <si>
+    <t>Cours</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>L.Viret</t>
+  </si>
+  <si>
+    <t>ICT-431</t>
+  </si>
+  <si>
+    <t>Bataille Navale</t>
+  </si>
+  <si>
+    <t>Instruction concernant github
+À rendre pour vendredi 06.03.2020:
+-MCD
+-Maquette
+-Journaux</t>
   </si>
 </sst>
 </file>
@@ -70,7 +98,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -78,25 +106,313 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="9">
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -127,17 +443,14 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tableau3" displayName="Tableau3" ref="A2:H3" totalsRowShown="0">
-  <autoFilter ref="A2:H3"/>
-  <tableColumns count="8">
-    <tableColumn id="1" name="Date"/>
-    <tableColumn id="2" name="Heure début"/>
-    <tableColumn id="3" name="Heure fin"/>
-    <tableColumn id="4" name="Temps"/>
-    <tableColumn id="5" name="Projet"/>
-    <tableColumn id="6" name="Tâche"/>
-    <tableColumn id="7" name="Description "/>
-    <tableColumn id="8" name="Source"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A2:E4" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="7" tableBorderDxfId="8" totalsRowBorderDxfId="6">
+  <autoFilter ref="A2:E4"/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="Date" dataDxfId="5"/>
+    <tableColumn id="2" name="De/Avec qui" dataDxfId="4"/>
+    <tableColumn id="3" name="Cours" dataDxfId="3"/>
+    <tableColumn id="4" name="Projet" dataDxfId="2"/>
+    <tableColumn id="5" name="Description" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -408,7 +721,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
@@ -423,40 +736,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="3" t="s">
         <v>7</v>
       </c>
     </row>
@@ -473,63 +786,82 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:H1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.28515625" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="37.5703125" customWidth="1"/>
     <col min="7" max="7" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
+      <c r="A1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="4" t="s">
+      <c r="B2" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>7</v>
-      </c>
+      <c r="E2" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A3" s="11">
+        <v>43894</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="15"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A1:E1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Journaux.xlsx
+++ b/Journaux.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="24">
   <si>
     <t>Date</t>
   </si>
@@ -75,6 +75,27 @@
 -MCD
 -Maquette
 -Journaux</t>
+  </si>
+  <si>
+    <t>Maquette</t>
+  </si>
+  <si>
+    <t>avancer dans la maquette</t>
+  </si>
+  <si>
+    <t>MCD</t>
+  </si>
+  <si>
+    <t>Recu MCD de Pedro</t>
+  </si>
+  <si>
+    <t>P.Pinto</t>
+  </si>
+  <si>
+    <t>Amélioration de ma compréhension du MCD à rendre</t>
+  </si>
+  <si>
+    <t>réalisation du MCD pour la bataille navale</t>
   </si>
 </sst>
 </file>
@@ -98,7 +119,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -207,29 +228,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
@@ -243,34 +261,37 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="10">
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
+      <numFmt numFmtId="25" formatCode="hh:mm"/>
     </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
@@ -390,6 +411,22 @@
       </border>
     </dxf>
     <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <border>
         <bottom style="thin">
           <color indexed="64"/>
@@ -398,18 +435,20 @@
     </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
+        <left style="thin">
           <color indexed="64"/>
         </left>
-        <right style="medium">
+        <right style="thin">
           <color indexed="64"/>
         </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
       </border>
     </dxf>
   </dxfs>
@@ -426,13 +465,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tableau2" displayName="Tableau2" ref="A2:H3" totalsRowShown="0">
-  <autoFilter ref="A2:H3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tableau2" displayName="Tableau2" ref="A2:H4" totalsRowShown="0">
+  <autoFilter ref="A2:H4"/>
   <tableColumns count="8">
     <tableColumn id="1" name="Date"/>
     <tableColumn id="2" name="Heure début"/>
     <tableColumn id="3" name="Heure fin"/>
-    <tableColumn id="4" name="Temps"/>
+    <tableColumn id="4" name="Temps" dataDxfId="0">
+      <calculatedColumnFormula>IF(AND(ISBLANK(Tableau2[Heure début]),ISBLANK(Tableau2[Heure fin])),"",Tableau2[Heure fin]-Tableau2[Heure début])</calculatedColumnFormula>
+    </tableColumn>
     <tableColumn id="5" name="Projet"/>
     <tableColumn id="6" name="Tâche"/>
     <tableColumn id="7" name="Description "/>
@@ -443,8 +484,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A2:E4" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="7" tableBorderDxfId="8" totalsRowBorderDxfId="6">
-  <autoFilter ref="A2:E4"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A2:E5" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="A2:E5"/>
   <tableColumns count="5">
     <tableColumn id="1" name="Date" dataDxfId="5"/>
     <tableColumn id="2" name="De/Avec qui" dataDxfId="4"/>
@@ -719,33 +760,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:H1"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.28515625" customWidth="1"/>
     <col min="3" max="3" width="11.42578125" customWidth="1"/>
     <col min="4" max="4" width="9" customWidth="1"/>
-    <col min="5" max="5" width="8.5703125" customWidth="1"/>
-    <col min="6" max="6" width="8.28515625" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" customWidth="1"/>
+    <col min="5" max="5" width="17.5703125" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" customWidth="1"/>
+    <col min="7" max="7" width="38.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -771,6 +813,54 @@
       </c>
       <c r="H2" s="3" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="16">
+        <v>43896</v>
+      </c>
+      <c r="B3" s="17">
+        <v>0.4236111111111111</v>
+      </c>
+      <c r="C3" s="17">
+        <v>0.46875</v>
+      </c>
+      <c r="D3" s="17">
+        <f>IF(AND(ISBLANK(Tableau2[Heure début]),ISBLANK(Tableau2[Heure fin])),"",Tableau2[Heure fin]-Tableau2[Heure début])</f>
+        <v>4.5138888888888895E-2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="16">
+        <v>43896</v>
+      </c>
+      <c r="B4" s="17">
+        <v>0.5625</v>
+      </c>
+      <c r="C4" s="17">
+        <v>0.59375</v>
+      </c>
+      <c r="D4" s="17">
+        <f>IF(AND(ISBLANK(Tableau2[Heure début]),ISBLANK(Tableau2[Heure fin])),"",Tableau2[Heure fin]-Tableau2[Heure début])</f>
+        <v>3.125E-2</v>
+      </c>
+      <c r="E4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -778,18 +868,19 @@
     <mergeCell ref="A1:H1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -797,62 +888,110 @@
     <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="37.5703125" customWidth="1"/>
+    <col min="5" max="5" width="49" customWidth="1"/>
     <col min="7" max="7" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="7"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="15"/>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="6" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A3" s="11">
+      <c r="A3" s="7">
         <v>43894</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="9" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="15"/>
-      <c r="B4" s="16"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="14"/>
+      <c r="A4" s="7">
+        <v>43896</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
+        <v>43896</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="18"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="19"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="20"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="20"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Journaux.xlsx
+++ b/Journaux.xlsx
@@ -1,26 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{285AE412-9FB2-4538-8801-B885C7DF57D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="3036" yWindow="3036" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Journal de travail" sheetId="1" r:id="rId1"/>
     <sheet name="Journal de Bord" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
   <si>
     <t>Date</t>
   </si>
@@ -97,11 +106,17 @@
   <si>
     <t>réalisation du MCD pour la bataille navale</t>
   </si>
+  <si>
+    <t>Maquette et MCD</t>
+  </si>
+  <si>
+    <t>terminer maquette + modification MCD</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -264,6 +279,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -276,23 +300,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="10">
-    <dxf>
-      <numFmt numFmtId="25" formatCode="hh:mm"/>
-    </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -450,6 +462,9 @@
           <color indexed="64"/>
         </horizontal>
       </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="25" formatCode="hh:mm"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -465,33 +480,33 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tableau2" displayName="Tableau2" ref="A2:H4" totalsRowShown="0">
-  <autoFilter ref="A2:H4"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tableau2" displayName="Tableau2" ref="A2:H5" totalsRowShown="0">
+  <autoFilter ref="A2:H5" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="8">
-    <tableColumn id="1" name="Date"/>
-    <tableColumn id="2" name="Heure début"/>
-    <tableColumn id="3" name="Heure fin"/>
-    <tableColumn id="4" name="Temps" dataDxfId="0">
-      <calculatedColumnFormula>IF(AND(ISBLANK(Tableau2[Heure début]),ISBLANK(Tableau2[Heure fin])),"",Tableau2[Heure fin]-Tableau2[Heure début])</calculatedColumnFormula>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Date"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Heure début"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Heure fin"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Temps" dataDxfId="9">
+      <calculatedColumnFormula>IF(AND(ISBLANK(Tableau2[[#This Row],[Heure début]]),ISBLANK(Tableau2[[#This Row],[Heure fin]])),"",Tableau2[[#This Row],[Heure fin]]-Tableau2[[#This Row],[Heure début]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="Projet"/>
-    <tableColumn id="6" name="Tâche"/>
-    <tableColumn id="7" name="Description "/>
-    <tableColumn id="8" name="Source"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Projet"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Tâche"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Description "/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Source"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A2:E5" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="A2:E5"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tableau1" displayName="Tableau1" ref="A2:E5" totalsRowShown="0" headerRowDxfId="8" headerRowBorderDxfId="7" tableBorderDxfId="6" totalsRowBorderDxfId="5">
+  <autoFilter ref="A2:E5" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Date" dataDxfId="5"/>
-    <tableColumn id="2" name="De/Avec qui" dataDxfId="4"/>
-    <tableColumn id="3" name="Cours" dataDxfId="3"/>
-    <tableColumn id="4" name="Projet" dataDxfId="2"/>
-    <tableColumn id="5" name="Description" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Date" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="De/Avec qui" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Cours" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Projet" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Description" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -759,37 +774,37 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" customWidth="1"/>
+    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" customWidth="1"/>
+    <col min="3" max="3" width="11.44140625" customWidth="1"/>
     <col min="4" max="4" width="9" customWidth="1"/>
-    <col min="5" max="5" width="17.5703125" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" customWidth="1"/>
-    <col min="7" max="7" width="38.42578125" customWidth="1"/>
+    <col min="5" max="5" width="17.5546875" customWidth="1"/>
+    <col min="6" max="6" width="16.33203125" customWidth="1"/>
+    <col min="7" max="7" width="38.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -815,18 +830,18 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="16">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="12">
         <v>43896</v>
       </c>
-      <c r="B3" s="17">
+      <c r="B3" s="13">
         <v>0.4236111111111111</v>
       </c>
-      <c r="C3" s="17">
+      <c r="C3" s="13">
         <v>0.46875</v>
       </c>
-      <c r="D3" s="17">
-        <f>IF(AND(ISBLANK(Tableau2[Heure début]),ISBLANK(Tableau2[Heure fin])),"",Tableau2[Heure fin]-Tableau2[Heure début])</f>
+      <c r="D3" s="13">
+        <f>IF(AND(ISBLANK(Tableau2[[#This Row],[Heure début]]),ISBLANK(Tableau2[[#This Row],[Heure fin]])),"",Tableau2[[#This Row],[Heure fin]]-Tableau2[[#This Row],[Heure début]])</f>
         <v>4.5138888888888895E-2</v>
       </c>
       <c r="E3" t="s">
@@ -839,18 +854,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="16">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="12">
         <v>43896</v>
       </c>
-      <c r="B4" s="17">
+      <c r="B4" s="13">
         <v>0.5625</v>
       </c>
-      <c r="C4" s="17">
+      <c r="C4" s="13">
         <v>0.59375</v>
       </c>
-      <c r="D4" s="17">
-        <f>IF(AND(ISBLANK(Tableau2[Heure début]),ISBLANK(Tableau2[Heure fin])),"",Tableau2[Heure fin]-Tableau2[Heure début])</f>
+      <c r="D4" s="13">
+        <f>IF(AND(ISBLANK(Tableau2[[#This Row],[Heure début]]),ISBLANK(Tableau2[[#This Row],[Heure fin]])),"",Tableau2[[#This Row],[Heure fin]]-Tableau2[[#This Row],[Heure début]])</f>
         <v>3.125E-2</v>
       </c>
       <c r="E4" t="s">
@@ -861,6 +876,30 @@
       </c>
       <c r="G4" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="12">
+        <v>43896</v>
+      </c>
+      <c r="B5" s="13">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="C5" s="13">
+        <v>0.99305555555555547</v>
+      </c>
+      <c r="D5" s="13">
+        <f>IF(AND(ISBLANK(Tableau2[[#This Row],[Heure début]]),ISBLANK(Tableau2[[#This Row],[Heure fin]])),"",Tableau2[[#This Row],[Heure fin]]-Tableau2[[#This Row],[Heure début]])</f>
+        <v>7.638888888888884E-2</v>
+      </c>
+      <c r="E5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -876,35 +915,35 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="49" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" customWidth="1"/>
+    <col min="7" max="7" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="15"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="20"/>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -921,7 +960,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
         <v>43894</v>
       </c>
@@ -938,7 +977,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <v>43896</v>
       </c>
@@ -955,11 +994,11 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <v>43896</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C5" s="8" t="s">
@@ -972,25 +1011,25 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="18"/>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="19"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="20"/>
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="14"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="15"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="16"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
       <c r="E7" s="3"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="20"/>
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="16"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
       <c r="E8" s="3"/>
     </row>
   </sheetData>

--- a/Journaux.xlsx
+++ b/Journaux.xlsx
@@ -1,17 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{285AE412-9FB2-4538-8801-B885C7DF57D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="3036" yWindow="3036" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3030" yWindow="3030" windowWidth="17280" windowHeight="8970"/>
   </bookViews>
   <sheets>
     <sheet name="Journal de travail" sheetId="1" r:id="rId1"/>
     <sheet name="Journal de Bord" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="28">
   <si>
     <t>Date</t>
   </si>
@@ -112,11 +111,17 @@
   <si>
     <t>terminer maquette + modification MCD</t>
   </si>
+  <si>
+    <t>Sprint</t>
+  </si>
+  <si>
+    <t>Planification des sprints</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -480,33 +485,33 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tableau2" displayName="Tableau2" ref="A2:H5" totalsRowShown="0">
-  <autoFilter ref="A2:H5" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tableau2" displayName="Tableau2" ref="A2:H7" totalsRowShown="0">
+  <autoFilter ref="A2:H7"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Date"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Heure début"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Heure fin"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Temps" dataDxfId="9">
+    <tableColumn id="1" name="Date"/>
+    <tableColumn id="2" name="Heure début"/>
+    <tableColumn id="3" name="Heure fin"/>
+    <tableColumn id="4" name="Temps" dataDxfId="9">
       <calculatedColumnFormula>IF(AND(ISBLANK(Tableau2[[#This Row],[Heure début]]),ISBLANK(Tableau2[[#This Row],[Heure fin]])),"",Tableau2[[#This Row],[Heure fin]]-Tableau2[[#This Row],[Heure début]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Projet"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Tâche"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Description "/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Source"/>
+    <tableColumn id="5" name="Projet"/>
+    <tableColumn id="6" name="Tâche"/>
+    <tableColumn id="7" name="Description "/>
+    <tableColumn id="8" name="Source"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tableau1" displayName="Tableau1" ref="A2:E5" totalsRowShown="0" headerRowDxfId="8" headerRowBorderDxfId="7" tableBorderDxfId="6" totalsRowBorderDxfId="5">
-  <autoFilter ref="A2:E5" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A2:E5" totalsRowShown="0" headerRowDxfId="8" headerRowBorderDxfId="7" tableBorderDxfId="6" totalsRowBorderDxfId="5">
+  <autoFilter ref="A2:E5"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Date" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="De/Avec qui" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Cours" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Projet" dataDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Description" dataDxfId="0"/>
+    <tableColumn id="1" name="Date" dataDxfId="4"/>
+    <tableColumn id="2" name="De/Avec qui" dataDxfId="3"/>
+    <tableColumn id="3" name="Cours" dataDxfId="2"/>
+    <tableColumn id="4" name="Projet" dataDxfId="1"/>
+    <tableColumn id="5" name="Description" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -774,25 +779,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.33203125" customWidth="1"/>
-    <col min="3" max="3" width="11.44140625" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" customWidth="1"/>
     <col min="4" max="4" width="9" customWidth="1"/>
-    <col min="5" max="5" width="17.5546875" customWidth="1"/>
-    <col min="6" max="6" width="16.33203125" customWidth="1"/>
-    <col min="7" max="7" width="38.44140625" customWidth="1"/>
+    <col min="5" max="5" width="17.5703125" customWidth="1"/>
+    <col min="6" max="6" width="16.28515625" customWidth="1"/>
+    <col min="7" max="7" width="38.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>8</v>
       </c>
@@ -804,7 +809,7 @@
       <c r="G1" s="17"/>
       <c r="H1" s="17"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -830,7 +835,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="12">
         <v>43896</v>
       </c>
@@ -854,7 +859,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
         <v>43896</v>
       </c>
@@ -878,7 +883,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="12">
         <v>43896</v>
       </c>
@@ -900,6 +905,39 @@
       </c>
       <c r="G5" t="s">
         <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="12">
+        <v>43901</v>
+      </c>
+      <c r="D6" s="13" t="str">
+        <f>IF(AND(ISBLANK(Tableau2[[#This Row],[Heure début]]),ISBLANK(Tableau2[[#This Row],[Heure fin]])),"",Tableau2[[#This Row],[Heure fin]]-Tableau2[[#This Row],[Heure début]])</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="12">
+        <v>43902</v>
+      </c>
+      <c r="B7" s="13">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="C7" s="13">
+        <v>0.70486111111111116</v>
+      </c>
+      <c r="D7" s="13">
+        <f>IF(AND(ISBLANK(Tableau2[[#This Row],[Heure début]]),ISBLANK(Tableau2[[#This Row],[Heure fin]])),"",Tableau2[[#This Row],[Heure fin]]-Tableau2[[#This Row],[Heure début]])</f>
+        <v>0.10069444444444453</v>
+      </c>
+      <c r="E7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -915,23 +953,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="49" customWidth="1"/>
-    <col min="7" max="7" width="13.6640625" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
         <v>9</v>
       </c>
@@ -943,7 +981,7 @@
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -960,7 +998,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>43894</v>
       </c>
@@ -977,7 +1015,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>43896</v>
       </c>
@@ -994,7 +1032,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>43896</v>
       </c>
@@ -1011,21 +1049,21 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="14"/>
       <c r="B6" s="14"/>
       <c r="C6" s="14"/>
       <c r="D6" s="14"/>
       <c r="E6" s="15"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="16"/>
       <c r="B7" s="16"/>
       <c r="C7" s="16"/>
       <c r="D7" s="16"/>
       <c r="E7" s="3"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="16"/>
       <c r="B8" s="16"/>
       <c r="C8" s="16"/>

--- a/Journaux.xlsx
+++ b/Journaux.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="29">
   <si>
     <t>Date</t>
   </si>
@@ -115,7 +115,10 @@
     <t>Sprint</t>
   </si>
   <si>
-    <t>Planification des sprints</t>
+    <t>Planification des sprints (1 et 2)</t>
+  </si>
+  <si>
+    <t>Planification des sprints (fin du 2 et 3,4,5,6)</t>
   </si>
 </sst>
 </file>
@@ -783,7 +786,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -794,7 +797,7 @@
     <col min="4" max="4" width="9" customWidth="1"/>
     <col min="5" max="5" width="17.5703125" customWidth="1"/>
     <col min="6" max="6" width="16.28515625" customWidth="1"/>
-    <col min="7" max="7" width="38.42578125" customWidth="1"/>
+    <col min="7" max="7" width="39.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -911,9 +914,24 @@
       <c r="A6" s="12">
         <v>43901</v>
       </c>
-      <c r="D6" s="13" t="str">
+      <c r="B6" s="13">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="C6" s="13">
+        <v>0.51041666666666663</v>
+      </c>
+      <c r="D6" s="13">
         <f>IF(AND(ISBLANK(Tableau2[[#This Row],[Heure début]]),ISBLANK(Tableau2[[#This Row],[Heure fin]])),"",Tableau2[[#This Row],[Heure fin]]-Tableau2[[#This Row],[Heure début]])</f>
-        <v/>
+        <v>3.1249999999999944E-2</v>
+      </c>
+      <c r="E6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -937,7 +955,7 @@
         <v>26</v>
       </c>
       <c r="G7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
